--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myoc-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Myoc</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H2">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I2">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J2">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,116 +558,116 @@
         <v>0.037021</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1810521476743106</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1810521476743105</v>
       </c>
       <c r="Q2">
-        <v>0.01159122985211111</v>
+        <v>0.003009836094111111</v>
       </c>
       <c r="R2">
-        <v>0.104321068669</v>
+        <v>0.027088524847</v>
       </c>
       <c r="S2">
-        <v>0.02351740654579802</v>
+        <v>0.001153068288969458</v>
       </c>
       <c r="T2">
-        <v>0.02351740654579801</v>
+        <v>0.001153068288969458</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>37.428193</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H3">
-        <v>112.284579</v>
+        <v>0.731707</v>
       </c>
       <c r="I3">
-        <v>0.937099400709813</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J3">
-        <v>0.937099400709813</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.01234033333333333</v>
+        <v>0.05581866666666666</v>
       </c>
       <c r="N3">
-        <v>0.037021</v>
+        <v>0.167456</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8189478523256895</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8189478523256895</v>
       </c>
       <c r="Q3">
-        <v>0.4618763776843333</v>
+        <v>0.01361430304355555</v>
       </c>
       <c r="R3">
-        <v>4.156887399159</v>
+        <v>0.122528727392</v>
       </c>
       <c r="S3">
-        <v>0.937099400709813</v>
+        <v>0.005215639863798104</v>
       </c>
       <c r="T3">
-        <v>0.937099400709813</v>
+        <v>0.005215639863798104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.512001666666667</v>
+        <v>37.428193</v>
       </c>
       <c r="H4">
-        <v>4.536005</v>
+        <v>112.284579</v>
       </c>
       <c r="I4">
-        <v>0.03785637889880422</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J4">
-        <v>0.03785637889880422</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,84 +682,208 @@
         <v>0.037021</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1810521476743106</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1810521476743105</v>
       </c>
       <c r="Q4">
-        <v>0.01865860456722222</v>
+        <v>0.4618763776843333</v>
       </c>
       <c r="R4">
-        <v>0.167927441105</v>
+        <v>4.156887399159</v>
       </c>
       <c r="S4">
-        <v>0.03785637889880422</v>
+        <v>0.1769448527691904</v>
       </c>
       <c r="T4">
-        <v>0.03785637889880422</v>
+        <v>0.1769448527691903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>37.428193</v>
+      </c>
+      <c r="H5">
+        <v>112.284579</v>
+      </c>
+      <c r="I5">
+        <v>0.9773142989029397</v>
+      </c>
+      <c r="J5">
+        <v>0.9773142989029399</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.05581866666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.167456</v>
+      </c>
+      <c r="O5">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="P5">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="Q5">
+        <v>2.089191829002667</v>
+      </c>
+      <c r="R5">
+        <v>18.802726461024</v>
+      </c>
+      <c r="S5">
+        <v>0.8003694461337494</v>
+      </c>
+      <c r="T5">
+        <v>0.8003694461337495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.6248916666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.874675</v>
+      </c>
+      <c r="I6">
+        <v>0.01631699294429263</v>
+      </c>
+      <c r="J6">
+        <v>0.01631699294429263</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H5">
-        <v>0.182945</v>
-      </c>
-      <c r="I5">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J5">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
+      <c r="M6">
         <v>0.01234033333333333</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>0.037021</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.0007525340938888889</v>
-      </c>
-      <c r="R5">
-        <v>0.006772806845</v>
-      </c>
-      <c r="S5">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="T5">
-        <v>0.001526813845584768</v>
+      <c r="O6">
+        <v>0.1810521476743106</v>
+      </c>
+      <c r="P6">
+        <v>0.1810521476743105</v>
+      </c>
+      <c r="Q6">
+        <v>0.007711371463888888</v>
+      </c>
+      <c r="R6">
+        <v>0.06940234317499999</v>
+      </c>
+      <c r="S6">
+        <v>0.002954226616150753</v>
+      </c>
+      <c r="T6">
+        <v>0.002954226616150752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6248916666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.874675</v>
+      </c>
+      <c r="I7">
+        <v>0.01631699294429263</v>
+      </c>
+      <c r="J7">
+        <v>0.01631699294429263</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.05581866666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.167456</v>
+      </c>
+      <c r="O7">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="P7">
+        <v>0.8189478523256895</v>
+      </c>
+      <c r="Q7">
+        <v>0.03488061964444444</v>
+      </c>
+      <c r="R7">
+        <v>0.3139255767999999</v>
+      </c>
+      <c r="S7">
+        <v>0.01336276632814188</v>
+      </c>
+      <c r="T7">
+        <v>0.01336276632814188</v>
       </c>
     </row>
   </sheetData>
